--- a/biology/Botanique/Salle_de_dégustation/Salle_de_dégustation.xlsx
+++ b/biology/Botanique/Salle_de_dégustation/Salle_de_dégustation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Salle_de_d%C3%A9gustation</t>
+          <t>Salle_de_dégustation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une salle de dégustation permet de réaliser dans des conditions idéales la dégustation du vin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Salle_de_d%C3%A9gustation</t>
+          <t>Salle_de_dégustation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La salle est composée de plusieurs postes de dégustation individuels. 
 Ils sont équipés de crachoirs et de robinets permettant de rejeter le vin après sa mise en bouche.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Salle_de_d%C3%A9gustation</t>
+          <t>Salle_de_dégustation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Conditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La salle doit être silencieuse, lumineuse, de couleur neutre (blanche), sans odeur. Ces conditions sont essentielles pour ne pas influer sur les autres sens du dégustateur ou perturber la vue, l'odorat et le goût, auquel cas la dégustation serait faussée. En effet le cerveau et le jugement sont facilement influençables, et la dégustation étant très dépendante de la personne, il est nécessaire de limiter les biais pour qu’elle soit au maximum reproductible[1],[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La salle doit être silencieuse, lumineuse, de couleur neutre (blanche), sans odeur. Ces conditions sont essentielles pour ne pas influer sur les autres sens du dégustateur ou perturber la vue, l'odorat et le goût, auquel cas la dégustation serait faussée. En effet le cerveau et le jugement sont facilement influençables, et la dégustation étant très dépendante de la personne, il est nécessaire de limiter les biais pour qu’elle soit au maximum reproductible,. 
 Lors des concours, de grandes salles ou bâtiments sont utilisés, on essaye alors de reproduire ces conditions en créant des îlots de dégustateurs, les moins nombreux possible, avec des nappes blanches, etc.
 </t>
         </is>
